--- a/src/TestData/MasterData.xlsx
+++ b/src/TestData/MasterData.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="7836"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18504" windowHeight="6852" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TNT_Master" sheetId="1" r:id="rId1"/>
     <sheet name="TNT_Input" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <oleSize ref="A1:S27"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>Module</t>
   </si>
@@ -44,51 +45,30 @@
     <t>Auth</t>
   </si>
   <si>
-    <t>services/users/auth/signup</t>
-  </si>
-  <si>
     <t>Post</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>services/users/auth/validateOTP</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>services/users/auth/sendOTP</t>
-  </si>
-  <si>
     <t>Res_Saver</t>
   </si>
   <si>
-    <t>{"data":{"otp":"0799","userType":"TNT","uuid":"7a060bwi"},"message":"suc_otpSent","status":"success"}</t>
-  </si>
-  <si>
     <t>countryCode</t>
   </si>
   <si>
-    <t>65</t>
-  </si>
-  <si>
     <t>RandomNumber</t>
   </si>
   <si>
-    <t>062</t>
-  </si>
-  <si>
     <t>mobileNo</t>
   </si>
   <si>
     <t>userType</t>
   </si>
   <si>
-    <t>TNT</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -128,13 +108,25 @@
     <t>TC04_Auth_Signin</t>
   </si>
   <si>
-    <t>services/users/auth/signin</t>
-  </si>
-  <si>
     <t>ExecutionRun</t>
   </si>
   <si>
     <t>Auth_Signin</t>
+  </si>
+  <si>
+    <t>services/xxx</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>{"data":{"otp":"1234","userType":"TNT","uuid":"qaz754sf"},"message":"suc_otpSent","status":"success"}</t>
+  </si>
+  <si>
+    <t>XYZ</t>
   </si>
 </sst>
 </file>
@@ -534,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,16 +567,16 @@
         <v>7</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="16" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="5" customFormat="1" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -592,42 +584,42 @@
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E2" s="13" t="str">
         <f>"{"&amp;CHAR(10)&amp;"""countryCode"""&amp;":"&amp;"""+"&amp;TNT_Input!B1&amp;""""&amp;","&amp;CHAR(10)&amp;"""mobileNo"""&amp;":"&amp;""""&amp;TNT_Input!B2&amp;""""&amp;","&amp;CHAR(10)&amp;"""userType"""&amp;":"&amp;""""&amp;TNT_Input!B3&amp;""""&amp;","&amp;CHAR(10)&amp;"""email"""&amp;":"&amp;""""&amp;TNT_Input!B4&amp;""""&amp;","&amp;CHAR(10)&amp;"""password"""&amp;":"&amp;""""&amp;TNT_Input!B5&amp;""""&amp;","&amp;CHAR(10)&amp;"""isSignUp"""&amp;":"&amp;" true"&amp;CHAR(10)&amp;"}"</f>
         <v>{
-"countryCode":"+65",
-"mobileNo":"9874561062",
-"userType":"TNT",
-"email":"testEmail062@gmail.com",
-"password":"testPwd@062",
+"countryCode":"+91",
+"mobileNo":"98745611234",
+"userType":"XYZ",
+"email":"testEmail1234@gmail.com",
+"password":"testPwd@1234",
 "isSignUp": true
 }</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="I2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="5" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -635,36 +627,36 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="13" t="str">
         <f>"{"&amp;CHAR(10)&amp;"""userType"""&amp;":"&amp;""""&amp;TNT_Input!B3&amp;""""&amp;","&amp;CHAR(10)&amp;"""mobileNo"""&amp;":"&amp;""""&amp;TNT_Input!B2&amp;""""&amp;CHAR(10)&amp;"}"</f>
         <v>{
-"userType":"TNT",
-"mobileNo":"9874561062"
+"userType":"XYZ",
+"mobileNo":"98745611234"
 }</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="J3" s="11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -672,36 +664,36 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="13" t="str">
         <f>"{"&amp;CHAR(10)&amp;"""otpNumber"""&amp;":"&amp;""""&amp;MID(F2,SEARCH("otp",F2)+6,SEARCH(",",F2)-SEARCH("otp",F2)-7)&amp;""""&amp;","&amp;CHAR(10)&amp;"""userType"""&amp;":"&amp;""""&amp;"TNT"&amp;""""&amp;","&amp;CHAR(10)&amp;"""uuid"""&amp;":"&amp;""""&amp;MID(F2,SEARCH("uuid",F2)+7,SEARCH("}",F2)-SEARCH("uuid",F2)-8)&amp;""""&amp;CHAR(10)&amp;"}"</f>
         <v>{
-"otpNumber":"0799",
+"otpNumber":"1234",
 "userType":"TNT",
-"uuid":"7a060bwi"
+"uuid":"qaz754sf"
 }</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="5" customFormat="1" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -709,38 +701,38 @@
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="13" t="str">
         <f>"{"&amp;CHAR(10)&amp;"""countryCode"""&amp;":"&amp;"""+"&amp;TNT_Input!B1&amp;""""&amp;","&amp;CHAR(10)&amp;"""username"""&amp;":"&amp;""""&amp;TNT_Input!B2&amp;""""&amp;""&amp;CHAR(10)&amp;"""password"""&amp;":"&amp;""""&amp;TNT_Input!B5&amp;""""&amp;",,"&amp;CHAR(10)&amp;"""userType"""&amp;":"&amp;""""&amp;TNT_Input!B3&amp;""""&amp;","&amp;CHAR(10)&amp;"""validationType"""&amp;":"&amp;""""""&amp;CHAR(10)&amp;"}"</f>
         <v>{
-"countryCode":"+65",
-"username":"9874561062"
-"password":"testPwd@062",,
-"userType":"TNT",
+"countryCode":"+91",
+"username":"98745611234"
+"password":"testPwd@1234",,
+"userType":"XYZ",
 "validationType":""
 }</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="J5" s="11" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -760,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,80 +765,80 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B2" s="7" t="str">
         <f>CONCATENATE("9874561",D1)</f>
-        <v>9874561062</v>
+        <v>98745611234</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B4" s="8" t="str">
         <f>CONCATENATE("testEmail",D1,"@gmail.com")</f>
-        <v>testEmail062@gmail.com</v>
+        <v>testEmail1234@gmail.com</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B5" s="8" t="str">
         <f>CONCATENATE("testPwd@",D1)</f>
-        <v>testPwd@062</v>
+        <v>testPwd@1234</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B6" s="9" t="str">
         <f>CONCATENATE("TestFN",D1)</f>
-        <v>TestFN062</v>
+        <v>TestFN1234</v>
       </c>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B7" s="9" t="str">
         <f>CONCATENATE("TestLN",D1)</f>
-        <v>TestLN062</v>
+        <v>TestLN1234</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B8" s="9" t="str">
         <f>CONCATENATE("TestMN",D1)</f>
-        <v>TestMN062</v>
+        <v>TestMN1234</v>
       </c>
     </row>
   </sheetData>
